--- a/publipostage/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
+++ b/publipostage/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00188071</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2003</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Postoperative Pain After Medical Abortion Under Local Anesthesia : a Prospective and Randomized Trial Comparing Several Analgesic Regimen</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -521,32 +531,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT00188058</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Comparison of Two Strategies for Setting Positive End-Expiratory Pressure in Acute Lung Injury/ Acute Respiratory Distress Syndrome (ExPress Study).</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>ExPress</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -558,28 +573,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT00188032</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Strategies for Suspected Pulmonary Embolism in Emergency Departments - SPEED Study</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -591,29 +611,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT01068886</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT00262379</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>External Pancreatic Duct Stent After Pancreaticoduodenectomy: a Prospective Randomized Multicenter Trial</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Multicenter Study, Randomized and Pragmatic, Comparing Two Therapeutic Strategies : Use or Non-use of Epoetin Beta in Patients Infected by Chronic Hepatitis C and Treated by Combination Therapy Peginterferon Alfa-2a Plus Ribavirin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -624,29 +649,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT00262379</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT01068886</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Multicenter Study, Randomized and Pragmatic, Comparing Two Therapeutic Strategies : Use or Non-use of Epoetin Beta in Patients Infected by Chronic Hepatitis C and Treated by Combination Therapy Peginterferon Alfa-2a Plus Ribavirin</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>External Pancreatic Duct Stent After Pancreaticoduodenectomy: a Prospective Randomized Multicenter Trial</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -657,32 +687,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT00648089</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT01052974</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ErythroPOietin in Myocardial Infarction</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EPOMI</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+          <t>Perioperative Analgesia by Femoral Perineural Catheter for Femoral Neck Fracture - Study KTcol -</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>KTcol</t>
+        </is>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -694,32 +729,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT01052974</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT00485147</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Perioperative Analgesia by Femoral Perineural Catheter for Femoral Neck Fracture - Study KTcol -</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>KTcol</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
+          <t>Study of Human Locomotion With Global Positioning System. Application to Patients With Peripheral Arterial Disease</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Starter-GPS</t>
+        </is>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -731,32 +771,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT00485147</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT00648089</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Study of Human Locomotion With Global Positioning System. Application to Patients With Peripheral Arterial Disease</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Starter-GPS</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
+          <t>ErythroPOietin in Myocardial Infarction</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>EPOMI</t>
+        </is>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -768,32 +813,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT01390129</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Remote Ischemic Preconditioning in Aortic Valve Surgery (RIP-Valve)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>RIP-Valve</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -805,28 +855,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>NCT01592812</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Investigation of the Arterial Effects of the Veinoplus(r) Stimlator Device.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -838,66 +893,72 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>NCT01149278</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>SEPSISPAM</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT01549691</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT00188019</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Assessment of Two Modes of Premedication in Surgery - PREMED Study</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PREMED</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
+          <t>Evaluation Des méthodes de dépistage du Paragangliome héréditaire Chez Les Sujets prédisposés génétiquement</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -908,66 +969,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT00188019</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT02179411</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Evaluation Des méthodes de dépistage du Paragangliome héréditaire Chez Les Sujets prédisposés génétiquement</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="b">
-        <v>0</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Study of the Renal Perfusion in Healthy Volunteers and Renal Transplant Recipients During an Orthostatic Stress</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ortho_rein</t>
+        </is>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT02179411</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT01572961</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Study of the Renal Perfusion in Healthy Volunteers and Renal Transplant Recipients During an Orthostatic Stress</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ortho_rein</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>Amélioration Des Techniques d'étude de la Micro-cirulation cutanée Chez Des Sujets Sains</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>MICROTEC</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -978,32 +1053,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT01572961</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT01549691</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Amélioration Des Techniques d'étude de la Micro-cirulation cutanée Chez Des Sujets Sains</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MICROTEC</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
+          <t>Assessment of Two Modes of Premedication in Surgery - PREMED Study</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>PREMED</t>
+        </is>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1015,32 +1095,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>NCT01390142</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Remote Ischemic Preconditioning Combined to Local Ischemic Postconditioning in Acute Myocardial Infarction (RIRE-1)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>RIRE-1</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1052,32 +1137,33 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT02704247</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT02003157</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Evaluation of CARDIOSPACE System in Healthy Volunteers for Physiological Research in Space Environment</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>CARDIOSPACE</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>HYPNOART</t>
+        </is>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1089,32 +1175,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT01300845</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NCT02704247</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Prospective, Randomized, Multi-center Trial Aiming at Assessing the Effect of Humidification on the Comfort of the Patient Receiving an Oxygen Therapy.</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>OXYREA</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
+          <t>Evaluation of CARDIOSPACE System in Healthy Volunteers for Physiological Research in Space Environment</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>CARDIOSPACE</t>
+        </is>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1126,32 +1217,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT02120144</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT01300845</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Effect of Observation Plus Imagination of Gait on Stride Variability in Young and Older Adults</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>OBI</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
+          <t>Prospective, Randomized, Multi-center Trial Aiming at Assessing the Effect of Humidification on the Comfort of the Patient Receiving an Oxygen Therapy.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>OXYREA</t>
+        </is>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1163,28 +1259,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT02003157</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT02120144</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>HYPNOART</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>Effect of Observation Plus Imagination of Gait on Stride Variability in Young and Older Adults</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>OBI</t>
+        </is>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1196,107 +1301,122 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT02549053</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT02538120</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Prevalence of Human Papillomavirus in Barrett Esophagus Compared With Controls</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Barrett</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
+          <t>Assessment of the Neurovascular Microcirculatory Response in Diabetes Type 1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>NEURODIAB1</t>
+        </is>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT02687659</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT02549053</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>TEMIS: a Pilot Study to Evaluate a Device to Characterize Ambulatory Physical Activity</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TEMIS</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
+          <t>Prevalence of Human Papillomavirus in Barrett Esophagus Compared With Controls</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Barrett</t>
+        </is>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT02538120</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT02086409</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Assessment of the Neurovascular Microcirculatory Response in Diabetes Type 1</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NEURODIAB1</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+          <t>Dairy Product, Calcium &amp; Vitamin D Supplementation and Cognitive-motor Function</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>GAME-D2</t>
+        </is>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1307,32 +1427,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT02086409</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT02687659</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Dairy Product, Calcium &amp; Vitamin D Supplementation and Cognitive-motor Function</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>GAME-D2</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+          <t>TEMIS: a Pilot Study to Evaluate a Device to Characterize Ambulatory Physical Activity</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>TEMIS</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1344,32 +1469,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>NCT01426607</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>VASO-AM :Impact of Oral Appliance Therapy on Endothelial Function in Obstructive Sleep Apnea</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>VASO-AM</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1381,70 +1511,80 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>NCT02704260</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Endofibrose Vasculaire et génétique</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>GOSSER</t>
         </is>
       </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT02556658</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT02072655</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Predicted Level of General Anaesthesia in Hip Fracture Surgery</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NAPfem</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
+          <t>Impact of Socio-aesthetic Care in the Quality of Life of Patients Treated for Lymphoma During and After Hospitalization</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>CareSSE</t>
+        </is>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1455,32 +1595,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT02072655</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT02684149</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Impact of Socio-aesthetic Care in the Quality of Life of Patients Treated for Lymphoma During and After Hospitalization</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CareSSE</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+          <t>Pain Impact Assessment of the Relational Touch During Arterial Puncture in ICU - TORREA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>ToRRéa</t>
+        </is>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1492,32 +1637,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>NCT02834351</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Atteinte Tissulaire au Cours de l'ischémie Chronique d'Effort. Validation d'un modèle d'étude du Muscle Sartorius Humain</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>SARTORIUS</t>
         </is>
       </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1529,143 +1679,163 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT02684149</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT02152176</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Pain Impact Assessment of the Relational Touch During Arterial Puncture in ICU - TORREA</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ToRRéa</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+          <t>Titration Morphinique autocontrôlée Par le Patient Par un Dispositif mécanique à Usage Unique Versus Administration Par l'infirmière Chez Les Patients Ayant Une Douleur aiguë sévère Aux Urgences.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>TACIDOU</t>
+        </is>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT02152176</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT02379234</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Titration Morphinique autocontrôlée Par le Patient Par un Dispositif mécanique à Usage Unique Versus Administration Par l'infirmière Chez Les Patients Ayant Une Douleur aiguë sévère Aux Urgences.</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>TACIDOU</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+          <t>SIMulation for HEmofiltration in Intensive caRe Unit</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>SIMHeR</t>
+        </is>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT02379234</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT01409694</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>SIMulation for HEmofiltration in Intensive caRe Unit</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SIMHeR</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+          <t>Evaluation d'Une stratégie thérapeutique d'Association médicamenteuse Pour la Prise en Charge de la Maladie d'Alzheimer et Des Maladies apparentées au Stade modéré</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>AD-IDEA</t>
+        </is>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT01409694</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT02556658</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Evaluation d'Une stratégie thérapeutique d'Association médicamenteuse Pour la Prise en Charge de la Maladie d'Alzheimer et Des Maladies apparentées au Stade modéré</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AD-IDEA</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
+          <t>Predicted Level of General Anaesthesia in Hip Fracture Surgery</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NAPfem</t>
+        </is>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1677,111 +1847,122 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT02501408</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT02550275</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Comparaison du Pied Bionique Proprio-Foot® Versus le Pied Habituel Chez Les amputés Tibiaux</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>PROPRIO-FOOT</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>COSIMH</t>
+        </is>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT03070860</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT02302456</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>2014-001748-39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Glucidic Metabolism, Ossification and Arterial Calcification During PseudoXanthoma Elasticum (PXE)</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>GOCAPXE</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+          <t>Tranexamic Acid for Preventing Postpartum Haemorrhage Following a Vaginal Delivery: a Multicenter Randomised Double Blind Placebo Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>TRAAP</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT02302456</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2014-001748-39</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
+          <t>NCT02501408</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Tranexamic Acid for Preventing Postpartum Haemorrhage Following a Vaginal Delivery: a Multicenter Randomised Double Blind Placebo Controlled Trial</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TRAAP</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+          <t>Comparaison du Pied Bionique Proprio-Foot® Versus le Pied Habituel Chez Les amputés Tibiaux</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>PROPRIO-FOOT</t>
+        </is>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1792,32 +1973,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT02463604</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT02815956</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Renal PRotection Against Contrast mEdium-induced nephroPathy in High Risk Patients undErgoing Coronary Angiography</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>PREPARE</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+          <t>InteresT And Mechanisms of Percutaneous Posterior tIbial Nerve Stimulation to Prevent pOstoperative Ileus in ColorectAl Surgery: A Preliminary Study</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>pre-TAPIOCA</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1829,32 +2015,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT02815956</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT02463604</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>InteresT And Mechanisms of Percutaneous Posterior tIbial Nerve Stimulation to Prevent pOstoperative Ileus in ColorectAl Surgery: A Preliminary Study</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>pre-TAPIOCA</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>Renal PRotection Against Contrast mEdium-induced nephroPathy in High Risk Patients undErgoing Coronary Angiography</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>PREPARE</t>
+        </is>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1866,28 +2057,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT02550275</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT03070860</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>COSIMH</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
+          <t>Glucidic Metabolism, Ossification and Arterial Calcification During PseudoXanthoma Elasticum (PXE)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>GOCAPXE</t>
+        </is>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1899,70 +2099,80 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>NCT02997436</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Asa Test ; un Nouvel Outil Dans le dépistage du Traitement Par Aspirine ? (This Official Titre is in French and Contains no Spelling Error. English Translation for it Would be : "ASA-test. A New Tool for the Screening of Aspirin Treatment")</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>FirstAMOS</t>
         </is>
       </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT02878460</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT02161965</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ORI2 : ORI for hyperOxia Reduction in ICU</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ORI2</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
+          <t>The VICTORIA Study (Vascular CalcIfiCation and sTiffness Induced by ORal antIcoAgulation) Comparison Anti-vitamin K Versus Anti-Xa.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>VICTORIA</t>
+        </is>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1973,70 +2183,76 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT02650232</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT02134561</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Pilot Study to Evaluate the Somnotouch Device to Quantify Spontaneous Baroreflex Sensitivity in Healthy Subjects and in Patients With Heart Failure</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>SOMNO-BRS</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>PREHUNT</t>
+        </is>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT02161965</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT02317003</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>The VICTORIA Study (Vascular CalcIfiCation and sTiffness Induced by ORal antIcoAgulation) Comparison Anti-vitamin K Versus Anti-Xa.</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
+          <t>Physical Exercise Prescription With PEdometeR in General Practice for Patients With Cardiovascular Risk Factors - The PEPPER Pragmatic Randomised Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>PEPPER</t>
+        </is>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2047,176 +2263,205 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT02134561</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT02650232</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>PREHUNT</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+          <t>Pilot Study to Evaluate the Somnotouch Device to Quantify Spontaneous Baroreflex Sensitivity in Healthy Subjects and in Patients With Heart Failure</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>SOMNO-BRS</t>
+        </is>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT02317003</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT02878460</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Physical Exercise Prescription With PEdometeR in General Practice for Patients With Cardiovascular Risk Factors - The PEPPER Pragmatic Randomised Controlled Trial</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PEPPER</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
+          <t>ORI2 : ORI for hyperOxia Reduction in ICU</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ORI2</t>
+        </is>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT03305198</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT02811237</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>BIOlogical Response to Exercise : A Metabolomic Study in Peripheral Artery Disease (BIOR)</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>BIOR</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
+          <t>Criteria for Hospitalization or Outpatient Management of Patients With Pulmonary Embolism, Hestia Rule Versus Simplified PESI Score : an Open-label Controlled Randomized International Trial (HOME-PE)</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>HOME-PE</t>
+        </is>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NCT02689557</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NCT03631797</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>VEINEX : Venous Investigations During Exercise</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>VEINEX</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
+          <t>L'Etude préopératoire de la Microcirculation Pour la prédiction Des Complications après Une Chirurgie Cardiaque Sous Circulation Extracorporelle.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>MONS</t>
+        </is>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT02811237</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT02861924</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Criteria for Hospitalization or Outpatient Management of Patients With Pulmonary Embolism, Hestia Rule Versus Simplified PESI Score : an Open-label Controlled Randomized International Trial (HOME-PE)</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>HOME-PE</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
+          <t>Réponse à l'Application d'Une Pression Locale en Laser Speckle Imaging Locally Applied Pressure-induced Vasodilatation</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>LAV</t>
+        </is>
       </c>
       <c r="H49" t="b">
         <v>1</v>
       </c>
       <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2228,70 +2473,80 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>NCT03356379</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Application de l'oxymétrie Dynamique Pour le Diagnostic Des pièges artériels poplités</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>PETRUS</t>
         </is>
       </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NCT02861924</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT02689557</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Réponse à l'Application d'Une Pression Locale en Laser Speckle Imaging Locally Applied Pressure-induced Vasodilatation</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>LAV</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
+          <t>VEINEX : Venous Investigations During Exercise</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>VEINEX</t>
+        </is>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2302,144 +2557,164 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCT03538080</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NCT03305198</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Evaluation du pré-marquage Par AccuVein® au Cours Des échographies Doppler de repérage saphène.</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ACCUMULATION</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
+          <t>BIOlogical Response to Exercise : A Metabolomic Study in Peripheral Artery Disease (BIOR)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>BIOR</t>
+        </is>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NCT03631797</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NCT03538080</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>L'Etude préopératoire de la Microcirculation Pour la prédiction Des Complications après Une Chirurgie Cardiaque Sous Circulation Extracorporelle.</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MONS</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
+          <t>Evaluation du pré-marquage Par AccuVein® au Cours Des échographies Doppler de repérage saphène.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>ACCUMULATION</t>
+        </is>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT03568201</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCT03433989</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Application de l'oxymétrie Dynamique et Des Index de Pression Pour le Diagnostic Des Plicatures Iliaques du Sportif</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SALTY-TURTLE</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+          <t>Impact of Post-Traumatic Stress Disorder After Pregnancy Loss After 12 Weeks of Gestation (Termination of Pregnancy , Stillbirth, Late Miscarriage)</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ACTRAMAT-D</t>
+        </is>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT04338841</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT02475122</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>HOME-CoV: Hospitalization or Outpatient ManagEment of Patients With Confirmed or Probable SARS-CoV-2 Infection. A Before and After Implementation of a Consensus Help-decision Making Rule Study</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>HOME-CoV</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
+          <t>Prognostic Value of Measuring DsAz by MRI in Cirrhotic Patients on Prophylactic Treatment With β Blocker (AzyMR)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>AzyMR</t>
+        </is>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2450,32 +2725,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>NCT03635294</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Multi-Omics and IPSCs to Improve the Diagnosis of Rare Intellectual Disabilities</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>MIDRID</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2487,32 +2767,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT02475122</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT03568201</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Prognostic Value of Measuring DsAz by MRI in Cirrhotic Patients on Prophylactic Treatment With β Blocker (AzyMR)</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>AzyMR</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+          <t>Application de l'oxymétrie Dynamique et Des Index de Pression Pour le Diagnostic Des Plicatures Iliaques du Sportif</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>SALTY-TURTLE</t>
+        </is>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2522,151 +2807,171 @@
           <t>🟧</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>2019-002571-33</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Transcutaneous measurement of oxygen during transient hyperoxia 
  Mesure transcutanée de l’oxygène au cours de l’hyperoxie transitoire</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>SCHOTT</t>
         </is>
       </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT03615833</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2018-004146-41</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
+          <t>NCT04146636</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Evaluation of a Strategy for Systematic Screening for Vitamin D Deficiency and Treatment in Case of Deficiency, on the Improvement of the Maximum Walking Distance in Patients With Stage 2 Lower Limb Arterial Disease.</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>First-BLINDOS</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+          <t>Screening in Primary Care of Advanced Liver Fibrosis in NAFLD and/or Alcoholic Patients (IMPROVE Study)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>IMPROVE</t>
+        </is>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT03433989</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT04338841</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Impact of Post-Traumatic Stress Disorder After Pregnancy Loss After 12 Weeks of Gestation (Termination of Pregnancy , Stillbirth, Late Miscarriage)</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ACTRAMAT-D</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>HOME-CoV: Hospitalization or Outpatient ManagEment of Patients With Confirmed or Probable SARS-CoV-2 Infection. A Before and After Implementation of a Consensus Help-decision Making Rule Study</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>HOME-CoV</t>
+        </is>
       </c>
       <c r="H60" t="b">
         <v>1</v>
       </c>
       <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NCT04146636</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NCT03615833</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>2018-004146-41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Screening in Primary Care of Advanced Liver Fibrosis in NAFLD and/or Alcoholic Patients (IMPROVE Study)</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>IMPROVE</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
+          <t>Evaluation of a Strategy for Systematic Screening for Vitamin D Deficiency and Treatment in Case of Deficiency, on the Improvement of the Maximum Walking Distance in Patients With Stage 2 Lower Limb Arterial Disease.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>First-BLINDOS</t>
+        </is>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2677,107 +2982,122 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>NCT03832218</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Executive Function Disorders and Anxio-depressive Symptomatology in Children and Adolescents With Mitochondrial Pathologies</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>MITOPSY</t>
         </is>
       </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT03010943</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT03541213</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Chirurgie Eveillee du Cerveau Sous Realite Virtuelle Integree Aux Outils Bloc Operatoire : Etude de Tolerance</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CERVO1</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
+          <t>Impact de la Carence Martiale et de Son Traitement Sur le métabolisme Mitochondrial du Cardiomyocyte (MitoCardioFer)</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>MitoCardioFer</t>
+        </is>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT03541213</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT03010943</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Impact de la Carence Martiale et de Son Traitement Sur le métabolisme Mitochondrial du Cardiomyocyte (MitoCardioFer)</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>MitoCardioFer</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+          <t>Chirurgie Eveillee du Cerveau Sous Realite Virtuelle Integree Aux Outils Bloc Operatoire : Etude de Tolerance</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>CERVO1</t>
+        </is>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2788,140 +3108,160 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NCT04205032</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NCT04247477</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Evaluation in Healthy Volunteers of CARDIOSPACE II for Physiological Studies in Space</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>CDSII</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
+          <t>Comparison of Different Positive End-expiratory Pressure Titration Strategies Using ELectrical Impedance Tomography in Patients With Acute Respiratory Distress Syndrome : the DELTA Physiological Study</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>DELTA</t>
+        </is>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT04247477</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT03357367</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Comparison of Different Positive End-expiratory Pressure Titration Strategies Using ELectrical Impedance Tomography in Patients With Acute Respiratory Distress Syndrome : the DELTA Physiological Study</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>DELTA</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
+          <t>Performance du TiVi Pour évaluer la réactivité Microcirculatoire de la Peau à l'Application d'un Courant Galvanique, Effet de l'Aspirine</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>PIRAAT</t>
+        </is>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT04657471</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT04344041</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Hospitalization or Outpatient ManagEment of Patients With Suspected or Confirmed SRAS-CoV-2 Infection: the Revised HOME-CoV Score Study.</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>COvid-19 and Vitamin D Supplementation: a Multicenter Randomized Controlled Trial of High Dose Versus Standard Dose Vitamin D3 in High-risk COVID-19 Patients (CoVitTrial)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J67" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCT03357367</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NCT04548141</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Performance du TiVi Pour évaluer la réactivité Microcirculatoire de la Peau à l'Application d'un Courant Galvanique, Effet de l'Aspirine</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>PIRAAT</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
+          <t>Simplification de l'évaluation de l'Activité PHysique Par Interrogatoire Rapide</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>SAPHIR</t>
+        </is>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2932,140 +3272,160 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NCT04548141</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NCT04205032</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Simplification de l'évaluation de l'Activité PHysique Par Interrogatoire Rapide</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>SAPHIR</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
+          <t>Evaluation in Healthy Volunteers of CARDIOSPACE II for Physiological Studies in Space</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>CDSII</t>
+        </is>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT03158402</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT04657471</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>High Intensity Preoperative Inspiratory Muscle Training (IMTHi) Effects on the Perioperative Inflammatory Reaction in Cardiac Surgery With an Associated Biocollection.</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>EMI HiPo</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
+          <t>Hospitalization or Outpatient ManagEment of Patients With Suspected or Confirmed SRAS-CoV-2 Infection: the Revised HOME-CoV Score Study.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT04344041</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT04045925</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>COvid-19 and Vitamin D Supplementation: a Multicenter Randomized Controlled Trial of High Dose Versus Standard Dose Vitamin D3 in High-risk COVID-19 Patients (CoVitTrial)</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="b">
-        <v>1</v>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Feasibility Study of the Taïso Practice in Parkinson's Disease</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Taïso-Park</t>
+        </is>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT04045925</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT03158402</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Feasibility Study of the Taïso Practice in Parkinson's Disease</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Taïso-Park</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+          <t>High Intensity Preoperative Inspiratory Muscle Training (IMTHi) Effects on the Perioperative Inflammatory Reaction in Cardiac Surgery With an Associated Biocollection.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>EMI HiPo</t>
+        </is>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3076,70 +3436,80 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT04235023</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT03703765</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>PTP1B Implication in the Vascular Dysfunction Associated With Obstructive Sleep Apnea</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>MacroSAS</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
+          <t>Volume Estimation of Lower Limbs Before and After Endovascular Venous Intervention or Conventional Surgery in Venous Disease</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>VELVET</t>
+        </is>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT04164342</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT04064489</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Etude de la prévalence de la Douleur Chronique et de Ses Facteurs de Risque après Une Hospitalisation en réanimation Chirurgicale</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>DOUCREA</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
+          <t>Thromboembolic Risk Stratification by TRIP Score (Cast) to Guide Physicians in Preventive Treatment Prescriptions for Patients With Lower Limb Trauma Requiring Brace or Casting.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>CASTING</t>
+        </is>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J74" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3150,32 +3520,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCT04773899</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NCT03800771</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>L'Étude de la Dysfonction endothéliale Dans la Maladie à COVID-19 Chez Des Patients en Soins Critiques.</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CAUSED</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
+          <t>DOuble tasK Test On ergometeR - Basic Research on Acceptability and Use</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>DOKTORBRAU</t>
+        </is>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3187,32 +3562,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NCT03703765</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NCT05365295</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Volume Estimation of Lower Limbs Before and After Endovascular Venous Intervention or Conventional Surgery in Venous Disease</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>VELVET</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
+          <t>Sensitivity of Children With Attention Deficit/Hyperactivity Disorder to Memory Error Production</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>TDAH-DRM</t>
+        </is>
       </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3224,32 +3604,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCT03362710</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NCT04235023</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Evaluation du Risque Vasculaire Par Mesures Non Invasives en Soins Primaires.</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>First-SEDAN</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
+          <t>PTP1B Implication in the Vascular Dysfunction Associated With Obstructive Sleep Apnea</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>MacroSAS</t>
+        </is>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
       <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3261,32 +3646,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCT03800771</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NCT04773899</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>DOuble tasK Test On ergometeR - Basic Research on Acceptability and Use</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>DOKTORBRAU</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
+          <t>L'Étude de la Dysfonction endothéliale Dans la Maladie à COVID-19 Chez Des Patients en Soins Critiques.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>CAUSED</t>
+        </is>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3298,32 +3688,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCT05365295</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NCT04196738</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Sensitivity of Children With Attention Deficit/Hyperactivity Disorder to Memory Error Production</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>TDAH-DRM</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
+          <t>Comparison of Volume Assist Control, Dual Mode and Airway Pressure Release Ventilation: A Physiological Study</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>COMIX-R</t>
+        </is>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3335,70 +3730,80 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT04196738</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NCT04929275</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Comparison of Volume Assist Control, Dual Mode and Airway Pressure Release Ventilation: A Physiological Study</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>COMIX-R</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>Feasability and Impact of Enhanced Recovery Programs After Surgery for Small Bowel Obstruction</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>RACO</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT04064489</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT04164342</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Thromboembolic Risk Stratification by TRIP Score (Cast) to Guide Physicians in Preventive Treatment Prescriptions for Patients With Lower Limb Trauma Requiring Brace or Casting.</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CASTING</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
+          <t>Etude de la prévalence de la Douleur Chronique et de Ses Facteurs de Risque après Une Hospitalisation en réanimation Chirurgicale</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>DOUCREA</t>
+        </is>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3409,32 +3814,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCT04929275</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NCT03362710</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Feasability and Impact of Enhanced Recovery Programs After Surgery for Small Bowel Obstruction</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>RACO</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+          <t>Evaluation du Risque Vasculaire Par Mesures Non Invasives en Soins Primaires.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>First-SEDAN</t>
+        </is>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3446,32 +3856,37 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>NCT05441176</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>TULIP et MASC : Premiers Usages</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>TEMPUS</t>
         </is>
       </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3483,32 +3898,37 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NCT03715738</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NCT04378335</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>MEasurement by a Numerical Approach of BREAst Volume MENABREA</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>MENABREA</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
+          <t>Assessment of Orality Disorders in Children With Food Allergies</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>ALLERGORAL</t>
+        </is>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3520,32 +3940,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>NCT04157790</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>Efficacy of the CARE Rule Associated With the HEART Score in Patients With Emergency Chest Pain</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>eCARE</t>
         </is>
       </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3557,32 +3982,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NCT04080622</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NCT03715738</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>A Randomized Trial to Evaluate the Efficacy of Selenium for the Prevention of Chemotherapy-induced Mucositis During Autologous Stem Cell Transplantation.</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>AutoSelenium</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
+          <t>MEasurement by a Numerical Approach of BREAst Volume MENABREA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>MENABREA</t>
+        </is>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3594,32 +4024,37 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NCT04459182</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NCT05345639</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Circulating Exosomes and Endothelial Dysfunction in Patients With Obstructive Sleep Apneas Hypopneas Syndrome(OSA): EXODYS</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>EXODYS</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
+          <t>Chest Wall Block After Sternotomy: Randomized Controlled Trial in Cardiac Surgery: (PABLOS Study)</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>PABLOS</t>
+        </is>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3631,32 +4066,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NCT04378335</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NCT03840434</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Assessment of Orality Disorders in Children With Food Allergies</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ALLERGORAL</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
+          <t>COmpartment Syndrome vaLidation Of Non Invasive Assessment of Tissue Pressure (COLONIA)</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>COLONIA</t>
+        </is>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3668,32 +4108,37 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NCT05345639</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NCT04459182</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Chest Wall Block After Sternotomy: Randomized Controlled Trial in Cardiac Surgery: (PABLOS Study)</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>PABLOS</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
+          <t>Circulating Exosomes and Endothelial Dysfunction in Patients With Obstructive Sleep Apneas Hypopneas Syndrome(OSA): EXODYS</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>EXODYS</t>
+        </is>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
       <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3705,32 +4150,37 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NCT03840434</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>NCT04080622</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>COmpartment Syndrome vaLidation Of Non Invasive Assessment of Tissue Pressure (COLONIA)</t>
-        </is>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>COLONIA</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
+          <t>A Randomized Trial to Evaluate the Efficacy of Selenium for the Prevention of Chemotherapy-induced Mucositis During Autologous Stem Cell Transplantation.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>AutoSelenium</t>
+        </is>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3742,32 +4192,37 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NCT04316520</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NCT05584930</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>A Pilot Study Evaluating the Tolerability of a Ketogenic Diet With Vitamin Supplementation for Patients Receiving Treatment for Metastatic Renal Cell Carcinoma</t>
-        </is>
-      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>CETOREIN</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
+          <t>Evaluation of Serum Clusterin and Serum PTX3 Assay During Febrile Aplasia in Children Treated in Pediatric Oncology</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>CluPPFeN</t>
+        </is>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
       <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3779,28 +4234,37 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NCT04881201</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>NCT04316520</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Metabolomic Exploration of Dysregulated Lipid Metabolism in MFN2-related CMT2A (CMT2A) Linked to Mitofusin 2</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="b">
-        <v>0</v>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>A Pilot Study Evaluating the Tolerability of a Ketogenic Diet With Vitamin Supplementation for Patients Receiving Treatment for Metastatic Renal Cell Carcinoma</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>CETOREIN</t>
+        </is>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3812,107 +4276,118 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NCT05584930</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NCT04881201</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Evaluation of Serum Clusterin and Serum PTX3 Assay During Febrile Aplasia in Children Treated in Pediatric Oncology</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>CluPPFeN</t>
-        </is>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
+          <t>Metabolomic Exploration of Dysregulated Lipid Metabolism in MFN2-related CMT2A (CMT2A) Linked to Mitofusin 2</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="b">
         <v>0</v>
       </c>
       <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NCT03362489</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>NCT03869476</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Conversion of in Vitro Fertilization Cycles to Intrauterine Inseminations in Patients With a Poor Ovarian Response to Stimulation</t>
-        </is>
-      </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ConFIRM</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
+          <t>Pilot Study for the Development of a Non-invasive Diagnostic Score to Differentiate Between Essential Thrombocythemia, Premyelofibrosis and Myelofibrosis</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>BioScoreSMP</t>
+        </is>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NCT03869476</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NCT03362489</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Pilot Study for the Development of a Non-invasive Diagnostic Score to Differentiate Between Essential Thrombocythemia, Premyelofibrosis and Myelofibrosis</t>
-        </is>
-      </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>BioScoreSMP</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
+          <t>Conversion of in Vitro Fertilization Cycles to Intrauterine Inseminations in Patients With a Poor Ovarian Response to Stimulation</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>ConFIRM</t>
+        </is>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3923,29 +4398,34 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NCT02113319</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NCT02393014</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>An Open-Label, Multicenter, Phase II Study to Assess Dasatinib in Patients With Core Binding Factors Acute Myelogenous Leukemia Refractory to Conventional Chemotherapy or in Molecular Relapse. Intergroupe Français Des leucémie aiguë myéloblastique</t>
-        </is>
-      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>DasaCBF</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
+          <t>Activité Physique et prévention de la Chute du Patient âGé hospItalisé en Court séjouR: Etude de faisabilité (AGIR)</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>AGIR</t>
+        </is>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
+      </c>
+      <c r="J96" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3956,29 +4436,34 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NCT02393014</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>NCT02113319</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Activité Physique et prévention de la Chute du Patient âGé hospItalisé en Court séjouR: Etude de faisabilité (AGIR)</t>
-        </is>
-      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>AGIR</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
+          <t>An Open-Label, Multicenter, Phase II Study to Assess Dasatinib in Patients With Core Binding Factors Acute Myelogenous Leukemia Refractory to Conventional Chemotherapy or in Molecular Relapse. Intergroupe Français Des leucémie aiguë myéloblastique</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>DasaCBF</t>
+        </is>
       </c>
       <c r="H97" t="b">
         <v>0</v>
       </c>
       <c r="I97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3989,28 +4474,33 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>NCT00727935</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
         <is>
           <t>Comparison Of The Analgesia Obtained By Infiltration Of Lidocaïne 1% And Ropivacaïne 0,75% Versus Placebo For The Joinings Of Episiotomies Among Parturients Under Epidural Analgesia</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>LiRoPep</t>
         </is>
       </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
       <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4020,30 +4510,35 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
         <is>
           <t>2021-003770-30</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
         <is>
           <t>L’érythropoïétine pour améliorer le devenir des patients de soins intensifs – EPO-ICU-FS</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>EPO-ICU-FS</t>
         </is>
       </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
       <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4053,49 +4548,99 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2020-001602-34</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>COvid-19 and Vitamin D supplementation: a multicenter randomized controlled Trial of high dose versus standard dose vitamin D3 in high-risk COVID-19 patients 
+ CoVitTrial- Supplémentation en vitamine D et COVID-19 : essai multicentrique randomisé comparant l’effet d’une forte dose versus une dose standard de vitamine D chez des patients âgés ayant une infection COVID-19 à risque d’aggravation secondaire</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>CoVitTrial 
+ CoVitTrial</t>
+        </is>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
         <is>
           <t>2016-002253-38</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
         <is>
           <t>Mesure de la clairance plasmatique du iohexol chez les patients sortant de réanimation après insuffisance rénale aiguë  
  Mesure de la clairance plasmatique du iohexol chez les patients sortant de réanimation après insuffisance rénale aiguë</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>IOXSOR 
  IOXSOR</t>
         </is>
       </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr">
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
         <is>
           <t>2015-001342-28</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
         <is>
           <t>TOMOSCINTIGRAPHIE HYBRIDE AUX LEUCOCYTES MARQUES DANS LE DIAGNOSTIC DES INFECTIONS DE PROTHESES VASCULAIRES.  Etude LEUCOPRO®@@ -4104,52 +4649,19 @@
  Etude LEUCOPRO®</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>LEUCOPRO® 
  LEUCOPRO®</t>
         </is>
       </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>2011-002387-24</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Dyva-AAGG: Dysfonction vasculaire micro et macro vasculaire induite par les traitements anti-angiogéniques : Identification de nouveaux marqueurs pronostics</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>DYVA-AAGG</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
-      </c>
       <c r="H102" t="b">
         <v>0</v>
       </c>
       <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4159,32 +4671,35 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>2020-001602-34</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>COvid-19 and Vitamin D supplementation: a multicenter randomized controlled Trial of high dose versus standard dose vitamin D3 in high-risk COVID-19 patients 
- CoVitTrial- Supplémentation en vitamine D et COVID-19 : essai multicentrique randomisé comparant l’effet d’une forte dose versus une dose standard de vitamine D chez des patients âgés ayant une infection COVID-19 à risque d’aggravation secondaire</t>
-        </is>
-      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2011-002387-24</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>CoVitTrial 
- CoVitTrial</t>
-        </is>
-      </c>
-      <c r="G103" t="b">
-        <v>0</v>
+          <t>Dyva-AAGG: Dysfonction vasculaire micro et macro vasculaire induite par les traitements anti-angiogéniques : Identification de nouveaux marqueurs pronostics</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>DYVA-AAGG</t>
+        </is>
       </c>
       <c r="H103" t="b">
         <v>0</v>
       </c>
       <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
+++ b/publipostage/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +574,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,6 +617,11 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -640,6 +660,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,6 +703,11 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -720,6 +750,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -762,6 +797,11 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -804,6 +844,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -846,6 +891,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -884,6 +934,11 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -922,6 +977,11 @@
       <c r="J12" t="b">
         <v>1</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -960,6 +1020,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1002,6 +1067,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1044,6 +1114,11 @@
       <c r="J15" t="b">
         <v>1</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1086,6 +1161,11 @@
       <c r="J16" t="b">
         <v>1</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1128,6 +1208,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1166,6 +1251,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1208,6 +1298,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1250,6 +1345,11 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1292,6 +1392,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1334,6 +1439,11 @@
       <c r="J22" t="b">
         <v>1</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1376,6 +1486,11 @@
       <c r="J23" t="b">
         <v>1</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1418,6 +1533,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1460,6 +1580,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1502,6 +1627,11 @@
       <c r="J26" t="b">
         <v>1</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1544,6 +1674,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1586,6 +1721,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1628,6 +1768,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1670,6 +1815,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1712,6 +1862,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1754,6 +1909,11 @@
       <c r="J32" t="b">
         <v>1</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1796,6 +1956,11 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1838,6 +2003,11 @@
       <c r="J34" t="b">
         <v>1</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1876,6 +2046,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1922,6 +2097,11 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1964,6 +2144,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2006,6 +2191,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2048,6 +2238,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2090,6 +2285,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2132,6 +2332,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2174,6 +2379,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2212,6 +2422,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2254,6 +2469,11 @@
       <c r="J44" t="b">
         <v>1</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2296,6 +2516,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2338,6 +2563,11 @@
       <c r="J46" t="b">
         <v>1</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2380,6 +2610,11 @@
       <c r="J47" t="b">
         <v>1</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2422,6 +2657,11 @@
       <c r="J48" t="b">
         <v>1</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2464,6 +2704,11 @@
       <c r="J49" t="b">
         <v>1</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2506,6 +2751,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2548,6 +2798,11 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2590,6 +2845,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2632,6 +2892,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2674,6 +2939,11 @@
       <c r="J54" t="b">
         <v>1</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2716,6 +2986,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2758,6 +3033,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2800,6 +3080,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2843,6 +3128,7 @@
       <c r="J58" t="b">
         <v>1</v>
       </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2885,6 +3171,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2927,6 +3218,11 @@
       <c r="J60" t="b">
         <v>1</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2973,6 +3269,11 @@
       <c r="J61" t="b">
         <v>1</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3015,6 +3316,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3057,6 +3363,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3099,6 +3410,11 @@
       <c r="J64" t="b">
         <v>1</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3141,6 +3457,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3183,6 +3504,11 @@
       <c r="J66" t="b">
         <v>1</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3221,6 +3547,11 @@
       <c r="J67" t="b">
         <v>1</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3263,6 +3594,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3305,6 +3641,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3343,6 +3684,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3385,6 +3731,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3427,6 +3778,11 @@
       <c r="J72" t="b">
         <v>1</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3469,6 +3825,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3511,6 +3872,11 @@
       <c r="J74" t="b">
         <v>1</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3553,6 +3919,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3595,6 +3966,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3637,6 +4013,11 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3679,6 +4060,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3721,6 +4107,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3763,6 +4154,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3805,6 +4201,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3847,6 +4248,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3889,6 +4295,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3931,6 +4342,11 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3973,6 +4389,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4015,6 +4436,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4057,6 +4483,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4099,6 +4530,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4141,6 +4577,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4183,6 +4624,11 @@
       <c r="J90" t="b">
         <v>0</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4225,6 +4671,11 @@
       <c r="J91" t="b">
         <v>0</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4267,6 +4718,11 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4305,6 +4761,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4347,6 +4808,11 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4388,6 +4854,11 @@
       </c>
       <c r="J95" t="b">
         <v>1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -4427,6 +4898,11 @@
       <c r="J96" t="b">
         <v>1</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4465,6 +4941,11 @@
       <c r="J97" t="b">
         <v>0</v>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4503,6 +4984,11 @@
       <c r="J98" t="b">
         <v>0</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4541,6 +5027,7 @@
       <c r="J99" t="b">
         <v>0</v>
       </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4581,6 +5068,7 @@
       <c r="J100" t="b">
         <v>0</v>
       </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4621,6 +5109,7 @@
       <c r="J101" t="b">
         <v>0</v>
       </c>
+      <c r="K101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4664,6 +5153,7 @@
       <c r="J102" t="b">
         <v>0</v>
       </c>
+      <c r="K102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4702,6 +5192,7 @@
       <c r="J103" t="b">
         <v>0</v>
       </c>
+      <c r="K103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
